--- a/Agile Gantt.xlsx
+++ b/Agile Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{C246A7FC-C8A7-4055-89DD-DC47E13AB4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE075981-AE35-464A-9E17-C5C99CF260CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="77">
   <si>
     <t>Task 3</t>
   </si>
@@ -203,12 +203,6 @@
     <t>Alcance y KPIs Asociados</t>
   </si>
   <si>
-    <t>Reporsitorio Github</t>
-  </si>
-  <si>
-    <t>Diagrama de Gantt</t>
-  </si>
-  <si>
     <t>EDA preliminar</t>
   </si>
   <si>
@@ -221,16 +215,10 @@
     <t>ETL y Pipelines</t>
   </si>
   <si>
-    <t>Arquitectura propuesta</t>
-  </si>
-  <si>
     <t>Data Warehouse con carga inicial</t>
   </si>
   <si>
     <t>Carga Incremental de Datos</t>
-  </si>
-  <si>
-    <t>Modelo Entidad Relacion</t>
   </si>
   <si>
     <t>Modelo de ML y Dashboard: Version de prueba</t>
@@ -245,58 +233,76 @@
     <t>Sprint # 3</t>
   </si>
   <si>
-    <t>Diseño de Reporets/Dashboards</t>
-  </si>
-  <si>
     <t>Modelo ML</t>
   </si>
   <si>
     <t>Modelo de ML en produccion</t>
   </si>
   <si>
-    <t>Documentacion: Seleccion del modelo, feature engineering, informe de analisis</t>
-  </si>
-  <si>
     <t>Presentaciones + Storytelling + documentacion</t>
   </si>
   <si>
-    <t>Repos ordenados (readme completo)</t>
-  </si>
-  <si>
-    <t>Presentacion</t>
-  </si>
-  <si>
-    <t>(RS)</t>
-  </si>
-  <si>
-    <t>(RS), (AD), (CA)</t>
-  </si>
-  <si>
-    <t>(JE), (RR)</t>
-  </si>
-  <si>
     <t>Solucion Propuesta (Productos, tecnologias a Utilizar)</t>
-  </si>
-  <si>
-    <t>(AD), (CA)</t>
-  </si>
-  <si>
-    <t>(AD), (CA), (RS)</t>
-  </si>
-  <si>
-    <t>(DG)</t>
-  </si>
-  <si>
-    <t>(RS), (AD), (CA), (DG)</t>
-  </si>
-  <si>
-    <t>(RS), (AD), (CA), (DG), (JE), (RR)</t>
   </si>
   <si>
     <t>Proyecto Final: Yelp &amp; Google Maps - Reseñas y Recomendaciones</t>
   </si>
   <si>
     <t>Insightful Data Solutions</t>
+  </si>
+  <si>
+    <t>Assigned to / Role</t>
+  </si>
+  <si>
+    <t>(RS / PM &amp; BA)</t>
+  </si>
+  <si>
+    <t>(RS / PM &amp; BA), (AD / DA &amp; DE), (CA / DA &amp; DE)</t>
+  </si>
+  <si>
+    <t>(JE / BIA &amp; DS), (RR / BIA &amp; DA)</t>
+  </si>
+  <si>
+    <t>(AD / DA &amp; DE), (CA / DA &amp; DE)</t>
+  </si>
+  <si>
+    <t>(AD / DA &amp; DE), (CA / DA &amp; DE), (RS / PM &amp; BA)</t>
+  </si>
+  <si>
+    <t>(DG / MLE)</t>
+  </si>
+  <si>
+    <t>(RS / PM &amp; BA), (AD / DA &amp; DE), (CA / DA &amp; DE), (DG / MLE)</t>
+  </si>
+  <si>
+    <t>(RS / PM &amp; BA), (AD / DA &amp; DE), (CA / DA &amp; DE), (DG / MLE), (JE / BIA &amp; DS), (RR / BIA &amp; DA)</t>
+  </si>
+  <si>
+    <t>Reporsitorio Github*</t>
+  </si>
+  <si>
+    <t>Diagrama de Gantt*</t>
+  </si>
+  <si>
+    <t>Presentacion*</t>
+  </si>
+  <si>
+    <t>Arquitectura propuesta*</t>
+  </si>
+  <si>
+    <t>Modelo Entidad Relacion*</t>
+  </si>
+  <si>
+    <t>Diseño de Reportes/Dashboards</t>
+  </si>
+  <si>
+    <t>Documentacion: Seleccion del modelo, feature engineering, informe de analisis*</t>
+  </si>
+  <si>
+    <t>Repos ordenados (readme completo)*</t>
+  </si>
+  <si>
+    <t>* Subtareas</t>
   </si>
 </sst>
 </file>
@@ -307,7 +313,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="d"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,6 +557,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -902,7 +916,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1246,6 +1260,12 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="13" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1257,6 +1277,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1294,14 +1317,24 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1816,72 +1849,38 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
       <border>
         <left/>
         <right/>
         <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1994,55 +1993,72 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
         </patternFill>
       </fill>
       <border>
         <left/>
         <right/>
         <top/>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
       <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2061,6 +2077,23 @@
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
         <vertical/>
         <horizontal/>
       </border>
@@ -2665,6 +2698,67 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECE55C1B-BC04-7D1E-6AA5-F9D05674672B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6572250" y="0"/>
+          <a:ext cx="17135475" cy="16506825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2779,8 +2873,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:G37" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
-  <autoFilter ref="B9:G37" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:G38" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+  <autoFilter ref="B9:G38" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2791,7 +2885,7 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Milestone description" dataDxfId="56"/>
     <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Category" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Assigned to" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Assigned to / Role" dataDxfId="54"/>
     <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progress" dataDxfId="53"/>
     <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Start" dataDxfId="52" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Days" dataDxfId="51" dataCellStyle="Comma [0]"/>
@@ -3142,11 +3236,11 @@
     <row r="2" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7"/>
       <c r="B2" s="111"/>
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
       <c r="F2" s="111"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -3174,11 +3268,11 @@
     <row r="4" spans="1:13" s="8" customFormat="1" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="106"/>
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
       <c r="F4" s="106"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -3191,11 +3285,11 @@
     <row r="5" spans="1:13" s="8" customFormat="1" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7"/>
       <c r="B5" s="106"/>
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
       <c r="F5" s="106"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -3295,7 +3389,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL39"/>
+  <dimension ref="A1:AU39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
@@ -3317,27 +3411,27 @@
     <row r="1" spans="1:47" ht="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:47" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
-      <c r="B2" s="145" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="132"/>
+      <c r="B2" s="133" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
       <c r="U2" s="65"/>
       <c r="V2" s="65"/>
       <c r="W2" s="65"/>
@@ -3383,7 +3477,7 @@
     <row r="4" spans="1:47" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="70" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C4" s="71"/>
       <c r="D4" s="72"/>
@@ -3393,36 +3487,36 @@
         <v>15</v>
       </c>
       <c r="H4" s="73"/>
-      <c r="I4" s="133" t="s">
+      <c r="I4" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
-      <c r="N4" s="134" t="s">
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
+      <c r="N4" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="134"/>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="134"/>
-      <c r="S4" s="135" t="s">
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="S4" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="135"/>
-      <c r="U4" s="135"/>
-      <c r="V4" s="135"/>
-      <c r="X4" s="129" t="s">
+      <c r="T4" s="138"/>
+      <c r="U4" s="138"/>
+      <c r="V4" s="138"/>
+      <c r="X4" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="129"/>
-      <c r="Z4" s="129"/>
-      <c r="AA4" s="129"/>
-      <c r="AC4" s="130" t="s">
+      <c r="Y4" s="131"/>
+      <c r="Z4" s="131"/>
+      <c r="AA4" s="131"/>
+      <c r="AC4" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="AD4" s="130"/>
-      <c r="AE4" s="130"/>
-      <c r="AF4" s="130"/>
+      <c r="AD4" s="132"/>
+      <c r="AE4" s="132"/>
+      <c r="AF4" s="132"/>
     </row>
     <row r="5" spans="1:47" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
@@ -3733,7 +3827,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="113" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E9" s="113" t="s">
         <v>9</v>
@@ -4125,8 +4219,8 @@
       <c r="C12" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="143" t="s">
-        <v>64</v>
+      <c r="D12" s="127" t="s">
+        <v>60</v>
       </c>
       <c r="E12" s="58">
         <v>1</v>
@@ -4303,8 +4397,8 @@
       <c r="C13" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="143" t="s">
-        <v>64</v>
+      <c r="D13" s="127" t="s">
+        <v>60</v>
       </c>
       <c r="E13" s="58">
         <v>1</v>
@@ -4481,8 +4575,8 @@
       <c r="C14" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="143" t="s">
-        <v>64</v>
+      <c r="D14" s="127" t="s">
+        <v>60</v>
       </c>
       <c r="E14" s="58">
         <v>0.8</v>
@@ -4654,13 +4748,13 @@
     <row r="15" spans="1:47" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="123" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="C15" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="143" t="s">
-        <v>64</v>
+      <c r="D15" s="127" t="s">
+        <v>60</v>
       </c>
       <c r="E15" s="58">
         <v>1</v>
@@ -4832,13 +4926,13 @@
     <row r="16" spans="1:47" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="123" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C16" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="143" t="s">
-        <v>65</v>
+      <c r="D16" s="127" t="s">
+        <v>61</v>
       </c>
       <c r="E16" s="58">
         <v>0.8</v>
@@ -5010,13 +5104,13 @@
     <row r="17" spans="1:47" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="123" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C17" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="143" t="s">
-        <v>64</v>
+      <c r="D17" s="127" t="s">
+        <v>60</v>
       </c>
       <c r="E17" s="58">
         <v>1</v>
@@ -5071,13 +5165,13 @@
     <row r="18" spans="1:47" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="123" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="143" t="s">
-        <v>66</v>
+      <c r="D18" s="127" t="s">
+        <v>62</v>
       </c>
       <c r="E18" s="58">
         <v>0.5</v>
@@ -5132,13 +5226,13 @@
     <row r="19" spans="1:47" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="123" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C19" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="143" t="s">
-        <v>64</v>
+      <c r="D19" s="127" t="s">
+        <v>60</v>
       </c>
       <c r="E19" s="58">
         <v>0.3</v>
@@ -5193,7 +5287,7 @@
     <row r="20" spans="1:47" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="122" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20" s="57"/>
       <c r="D20" s="57"/>
@@ -5361,13 +5455,13 @@
     <row r="21" spans="1:47" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="123" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="57" t="s">
-        <v>65</v>
+      <c r="D21" s="127" t="s">
+        <v>61</v>
       </c>
       <c r="E21" s="58">
         <v>0</v>
@@ -5539,13 +5633,13 @@
     <row r="22" spans="1:47" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="123" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C22" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="57" t="s">
-        <v>66</v>
+      <c r="D22" s="127" t="s">
+        <v>62</v>
       </c>
       <c r="E22" s="58">
         <v>0</v>
@@ -5717,13 +5811,13 @@
     <row r="23" spans="1:47" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="123" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" s="57" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="57" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E23" s="58">
         <v>0</v>
@@ -5895,13 +5989,13 @@
     <row r="24" spans="1:47" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="123" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C24" s="57" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="57" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E24" s="58">
         <v>0</v>
@@ -6074,13 +6168,13 @@
     <row r="25" spans="1:47" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="123" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C25" s="57" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="57" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E25" s="58">
         <v>0</v>
@@ -6252,13 +6346,13 @@
     <row r="26" spans="1:47" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="123" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C26" s="57" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="57" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E26" s="58">
         <v>0</v>
@@ -6313,13 +6407,13 @@
     <row r="27" spans="1:47" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="123" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C27" s="57" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="57" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E27" s="58">
         <v>0</v>
@@ -6374,13 +6468,13 @@
     <row r="28" spans="1:47" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="123" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C28" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="57" t="s">
-        <v>69</v>
+      <c r="D28" s="127" t="s">
+        <v>64</v>
       </c>
       <c r="E28" s="58">
         <v>0</v>
@@ -6435,13 +6529,13 @@
     <row r="29" spans="1:47" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="123" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C29" s="57" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="57" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E29" s="58">
         <v>0</v>
@@ -6496,7 +6590,7 @@
     <row r="30" spans="1:47" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="122" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C30" s="57"/>
       <c r="D30" s="57"/>
@@ -6664,13 +6758,13 @@
     <row r="31" spans="1:47" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="123" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C31" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="57" t="s">
-        <v>66</v>
+      <c r="D31" s="127" t="s">
+        <v>62</v>
       </c>
       <c r="E31" s="58">
         <v>0</v>
@@ -6842,13 +6936,13 @@
     <row r="32" spans="1:47" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="123" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C32" s="57" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="57" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E32" s="58">
         <v>0</v>
@@ -7020,13 +7114,13 @@
     <row r="33" spans="1:47" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="123" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C33" s="57" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="57" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E33" s="58">
         <v>0</v>
@@ -7197,14 +7291,14 @@
     </row>
     <row r="34" spans="1:47" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
-      <c r="B34" s="144" t="s">
-        <v>60</v>
+      <c r="B34" s="128" t="s">
+        <v>74</v>
       </c>
       <c r="C34" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="57" t="s">
-        <v>71</v>
+      <c r="D34" s="127" t="s">
+        <v>66</v>
       </c>
       <c r="E34" s="58">
         <v>0</v>
@@ -7376,13 +7470,13 @@
     <row r="35" spans="1:47" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="123" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C35" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="57" t="s">
-        <v>72</v>
+      <c r="D35" s="146" t="s">
+        <v>67</v>
       </c>
       <c r="E35" s="58">
         <v>0</v>
@@ -7554,13 +7648,13 @@
     <row r="36" spans="1:47" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="123" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C36" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="57" t="s">
-        <v>64</v>
+      <c r="D36" s="127" t="s">
+        <v>60</v>
       </c>
       <c r="E36" s="58">
         <v>0</v>
@@ -7780,9 +7874,15 @@
       <c r="AT37" s="85"/>
       <c r="AU37" s="85"/>
     </row>
-    <row r="38" spans="1:47" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="4"/>
-      <c r="G38" s="11"/>
+    <row r="38" spans="1:47" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="152" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="147"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="151"/>
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:47" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7799,7 +7899,7 @@
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="S4:V4"/>
   </mergeCells>
-  <conditionalFormatting sqref="E9:E37">
+  <conditionalFormatting sqref="E9:E38">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7818,58 +7918,58 @@
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I7:AR37">
+    <cfRule type="expression" dxfId="41" priority="1">
+      <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I6:AU6">
-    <cfRule type="expression" dxfId="41" priority="2">
+    <cfRule type="expression" dxfId="40" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:AR37">
-    <cfRule type="expression" dxfId="40" priority="1">
-      <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
+  <conditionalFormatting sqref="I10:AU36">
+    <cfRule type="expression" dxfId="39" priority="49" stopIfTrue="1">
+      <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="50" stopIfTrue="1">
+      <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="51" stopIfTrue="1">
+      <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="52" stopIfTrue="1">
+      <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="53" stopIfTrue="1">
+      <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:AU37">
+    <cfRule type="expression" dxfId="34" priority="42" stopIfTrue="1">
+      <formula>AND(#REF!="Low Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="43" stopIfTrue="1">
+      <formula>AND(#REF!="High Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="44" stopIfTrue="1">
+      <formula>AND(#REF!="On Track",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="45" stopIfTrue="1">
+      <formula>AND(#REF!="Med Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="46" stopIfTrue="1">
+      <formula>AND(LEN(#REF!)=0,I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:AU6">
-    <cfRule type="expression" dxfId="39" priority="3">
+    <cfRule type="expression" dxfId="29" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS7:AU37">
-    <cfRule type="expression" dxfId="38" priority="40">
+    <cfRule type="expression" dxfId="28" priority="40">
       <formula>AND(TODAY()&gt;=AS$7,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37:AU37">
-    <cfRule type="expression" dxfId="37" priority="42" stopIfTrue="1">
-      <formula>AND(#REF!="Low Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="43" stopIfTrue="1">
-      <formula>AND(#REF!="High Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="44" stopIfTrue="1">
-      <formula>AND(#REF!="On Track",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="45" stopIfTrue="1">
-      <formula>AND(#REF!="Med Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="46" stopIfTrue="1">
-      <formula>AND(LEN(#REF!)=0,I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10:AU36">
-    <cfRule type="expression" dxfId="32" priority="49" stopIfTrue="1">
-      <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="50" stopIfTrue="1">
-      <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="51" stopIfTrue="1">
-      <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="52" stopIfTrue="1">
-      <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="53" stopIfTrue="1">
-      <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="13">
@@ -7948,7 +8048,26 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E9:E37</xm:sqref>
+          <xm:sqref>E9:E38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="48" id="{39412BF5-D1E8-4731-95F6-6B0C252D35F8}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I10:AU36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="41" id="{A1EFF969-3CBB-4DB2-A4C9-47B01FE32C86}">
@@ -7969,25 +8088,6 @@
           </x14:cfRule>
           <xm:sqref>I37:AU37</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="48" id="{39412BF5-D1E8-4731-95F6-6B0C252D35F8}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I10:AU36</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -8001,7 +8101,9 @@
   </sheetPr>
   <dimension ref="A1:BP38"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRuler="0" topLeftCell="A26" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8020,27 +8122,27 @@
     <row r="1" spans="1:68" ht="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:68" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="142"/>
       <c r="U2" s="20"/>
       <c r="V2" s="20"/>
       <c r="W2" s="20"/>
@@ -8167,40 +8269,40 @@
         <v>15</v>
       </c>
       <c r="H4" s="28"/>
-      <c r="I4" s="133" t="s">
+      <c r="I4" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
       <c r="M4" s="31"/>
-      <c r="N4" s="134" t="s">
+      <c r="N4" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="134"/>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="134"/>
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
       <c r="R4" s="31"/>
-      <c r="S4" s="135" t="s">
+      <c r="S4" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="135"/>
-      <c r="U4" s="135"/>
-      <c r="V4" s="135"/>
+      <c r="T4" s="138"/>
+      <c r="U4" s="138"/>
+      <c r="V4" s="138"/>
       <c r="W4" s="31"/>
-      <c r="X4" s="129" t="s">
+      <c r="X4" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="129"/>
-      <c r="Z4" s="129"/>
-      <c r="AA4" s="129"/>
+      <c r="Y4" s="131"/>
+      <c r="Z4" s="131"/>
+      <c r="AA4" s="131"/>
       <c r="AB4" s="31"/>
-      <c r="AC4" s="130" t="s">
+      <c r="AC4" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="AD4" s="130"/>
-      <c r="AE4" s="130"/>
-      <c r="AF4" s="130"/>
+      <c r="AD4" s="132"/>
+      <c r="AE4" s="132"/>
+      <c r="AF4" s="132"/>
       <c r="AG4" s="31"/>
       <c r="AH4" s="31"/>
       <c r="AI4" s="31"/>
@@ -8311,7 +8413,7 @@
       </c>
       <c r="C6" s="33" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones435[Start])=0,TODAY(),B11(Milestones435[Start])),TODAY())</f>
-        <v>45459</v>
+        <v>45469</v>
       </c>
       <c r="D6" s="51"/>
       <c r="E6" s="31"/>
@@ -8320,7 +8422,7 @@
       <c r="H6" s="28"/>
       <c r="I6" s="92" t="str">
         <f ca="1">TEXT(I7,"mmmm")</f>
-        <v>June</v>
+        <v>July</v>
       </c>
       <c r="J6" s="92"/>
       <c r="K6" s="92"/>
@@ -8340,7 +8442,7 @@
       <c r="V6" s="92"/>
       <c r="W6" s="92" t="str">
         <f ca="1">IF(OR(TEXT(W7,"mmmm")=P6,TEXT(W7,"mmmm")=I6),"",TEXT(W7,"mmmm"))</f>
-        <v>July</v>
+        <v/>
       </c>
       <c r="X6" s="92"/>
       <c r="Y6" s="92"/>
@@ -8370,7 +8472,7 @@
       <c r="AQ6" s="92"/>
       <c r="AR6" s="92" t="str">
         <f ca="1">IF(OR(TEXT(AR7,"mmmm")=AK6,TEXT(AR7,"mmmm")=AD6,TEXT(AR7,"mmmm")=W6,TEXT(AR7,"mmmm")=P6),"",TEXT(AR7,"mmmm"))</f>
-        <v/>
+        <v>August</v>
       </c>
       <c r="AS6" s="92"/>
       <c r="AT6" s="92"/>
@@ -8380,7 +8482,7 @@
       <c r="AX6" s="92"/>
       <c r="AY6" s="92" t="str">
         <f ca="1">IF(OR(TEXT(AY7,"mmmm")=AR6,TEXT(AY7,"mmmm")=AK6,TEXT(AY7,"mmmm")=AD6,TEXT(AY7,"mmmm")=W6),"",TEXT(AY7,"mmmm"))</f>
-        <v>August</v>
+        <v/>
       </c>
       <c r="AZ6" s="92"/>
       <c r="BA6" s="92"/>
@@ -8415,227 +8517,227 @@
       <c r="H7" s="28"/>
       <c r="I7" s="94">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>45464</v>
+        <v>45474</v>
       </c>
       <c r="J7" s="17">
         <f ca="1">I7+1</f>
-        <v>45465</v>
+        <v>45475</v>
       </c>
       <c r="K7" s="17">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>45466</v>
+        <v>45476</v>
       </c>
       <c r="L7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45467</v>
+        <v>45477</v>
       </c>
       <c r="M7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45468</v>
+        <v>45478</v>
       </c>
       <c r="N7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45469</v>
+        <v>45479</v>
       </c>
       <c r="O7" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45470</v>
+        <v>45480</v>
       </c>
       <c r="P7" s="17">
         <f ca="1">O7+1</f>
-        <v>45471</v>
+        <v>45481</v>
       </c>
       <c r="Q7" s="17">
         <f ca="1">P7+1</f>
-        <v>45472</v>
+        <v>45482</v>
       </c>
       <c r="R7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45473</v>
+        <v>45483</v>
       </c>
       <c r="S7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45474</v>
+        <v>45484</v>
       </c>
       <c r="T7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45475</v>
+        <v>45485</v>
       </c>
       <c r="U7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45476</v>
+        <v>45486</v>
       </c>
       <c r="V7" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45477</v>
+        <v>45487</v>
       </c>
       <c r="W7" s="17">
         <f ca="1">V7+1</f>
-        <v>45478</v>
+        <v>45488</v>
       </c>
       <c r="X7" s="17">
         <f ca="1">W7+1</f>
-        <v>45479</v>
+        <v>45489</v>
       </c>
       <c r="Y7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45480</v>
+        <v>45490</v>
       </c>
       <c r="Z7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45491</v>
       </c>
       <c r="AA7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45482</v>
+        <v>45492</v>
       </c>
       <c r="AB7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45483</v>
+        <v>45493</v>
       </c>
       <c r="AC7" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45484</v>
+        <v>45494</v>
       </c>
       <c r="AD7" s="17">
         <f ca="1">AC7+1</f>
-        <v>45485</v>
+        <v>45495</v>
       </c>
       <c r="AE7" s="17">
         <f ca="1">AD7+1</f>
-        <v>45486</v>
+        <v>45496</v>
       </c>
       <c r="AF7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45487</v>
+        <v>45497</v>
       </c>
       <c r="AG7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45488</v>
+        <v>45498</v>
       </c>
       <c r="AH7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45489</v>
+        <v>45499</v>
       </c>
       <c r="AI7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45500</v>
       </c>
       <c r="AJ7" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45491</v>
+        <v>45501</v>
       </c>
       <c r="AK7" s="17">
         <f ca="1">AJ7+1</f>
-        <v>45492</v>
+        <v>45502</v>
       </c>
       <c r="AL7" s="17">
         <f ca="1">AK7+1</f>
-        <v>45493</v>
+        <v>45503</v>
       </c>
       <c r="AM7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45494</v>
+        <v>45504</v>
       </c>
       <c r="AN7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
+        <v>45505</v>
       </c>
       <c r="AO7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45496</v>
+        <v>45506</v>
       </c>
       <c r="AP7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45497</v>
+        <v>45507</v>
       </c>
       <c r="AQ7" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45498</v>
+        <v>45508</v>
       </c>
       <c r="AR7" s="17">
         <f ca="1">AQ7+1</f>
-        <v>45499</v>
+        <v>45509</v>
       </c>
       <c r="AS7" s="17">
         <f ca="1">AR7+1</f>
-        <v>45500</v>
+        <v>45510</v>
       </c>
       <c r="AT7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45501</v>
+        <v>45511</v>
       </c>
       <c r="AU7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45502</v>
+        <v>45512</v>
       </c>
       <c r="AV7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45503</v>
+        <v>45513</v>
       </c>
       <c r="AW7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45504</v>
+        <v>45514</v>
       </c>
       <c r="AX7" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45505</v>
+        <v>45515</v>
       </c>
       <c r="AY7" s="17">
         <f ca="1">AX7+1</f>
-        <v>45506</v>
+        <v>45516</v>
       </c>
       <c r="AZ7" s="17">
         <f ca="1">AY7+1</f>
-        <v>45507</v>
+        <v>45517</v>
       </c>
       <c r="BA7" s="17">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>45508</v>
+        <v>45518</v>
       </c>
       <c r="BB7" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>45509</v>
+        <v>45519</v>
       </c>
       <c r="BC7" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>45510</v>
+        <v>45520</v>
       </c>
       <c r="BD7" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>45511</v>
+        <v>45521</v>
       </c>
       <c r="BE7" s="62">
         <f t="shared" ca="1" si="1"/>
-        <v>45512</v>
+        <v>45522</v>
       </c>
       <c r="BF7" s="17">
         <f ca="1">BE7+1</f>
-        <v>45513</v>
+        <v>45523</v>
       </c>
       <c r="BG7" s="17">
         <f ca="1">BF7+1</f>
-        <v>45514</v>
+        <v>45524</v>
       </c>
       <c r="BH7" s="17">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>45515</v>
+        <v>45525</v>
       </c>
       <c r="BI7" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>45516</v>
+        <v>45526</v>
       </c>
       <c r="BJ7" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>45517</v>
+        <v>45527</v>
       </c>
       <c r="BK7" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>45518</v>
+        <v>45528</v>
       </c>
       <c r="BL7" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>45519</v>
+        <v>45529</v>
       </c>
       <c r="BM7" s="31"/>
     </row>
@@ -8729,227 +8831,227 @@
       <c r="H9" s="46"/>
       <c r="I9" s="36" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="3">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="J9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="K9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="L9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="M9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="N9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="O9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="P9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="Q9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="R9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="S9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="T9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="U9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="V9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="W9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="X9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="Y9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="Z9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AA9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AB9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="AC9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AD9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AE9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AF9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="AG9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AH9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AI9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="AJ9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AK9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AL9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AM9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="AN9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AO9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AP9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="AQ9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AR9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AS9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AT9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="AU9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AV9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AW9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="AX9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AY9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AZ9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BA9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="BB9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BC9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BD9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="BE9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="BF9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="BG9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BH9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="BI9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BJ9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BK9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="BL9" s="36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="BM9" s="31"/>
     </row>
@@ -9273,7 +9375,7 @@
       </c>
       <c r="F12" s="23">
         <f ca="1">TODAY()</f>
-        <v>45459</v>
+        <v>45469</v>
       </c>
       <c r="G12" s="24">
         <v>3</v>
@@ -9517,7 +9619,7 @@
       <c r="E13" s="22"/>
       <c r="F13" s="23">
         <f ca="1">TODAY()+5</f>
-        <v>45464</v>
+        <v>45474</v>
       </c>
       <c r="G13" s="24">
         <v>1</v>
@@ -9763,7 +9865,7 @@
       </c>
       <c r="F14" s="23">
         <f ca="1">F12-3</f>
-        <v>45456</v>
+        <v>45466</v>
       </c>
       <c r="G14" s="24">
         <v>10</v>
@@ -10007,7 +10109,7 @@
       <c r="E15" s="22"/>
       <c r="F15" s="23">
         <f ca="1">F12+20</f>
-        <v>45479</v>
+        <v>45489</v>
       </c>
       <c r="G15" s="24">
         <v>1</v>
@@ -10253,7 +10355,7 @@
       </c>
       <c r="F16" s="23">
         <f ca="1">F12+6</f>
-        <v>45465</v>
+        <v>45475</v>
       </c>
       <c r="G16" s="24">
         <v>6</v>
@@ -10736,7 +10838,7 @@
       </c>
       <c r="F18" s="23">
         <f ca="1">F12+6</f>
-        <v>45465</v>
+        <v>45475</v>
       </c>
       <c r="G18" s="24">
         <v>13</v>
@@ -10982,7 +11084,7 @@
       </c>
       <c r="F19" s="23">
         <f ca="1">F18+2</f>
-        <v>45467</v>
+        <v>45477</v>
       </c>
       <c r="G19" s="24">
         <v>9</v>
@@ -11228,7 +11330,7 @@
       </c>
       <c r="F20" s="23">
         <f ca="1">F19+5</f>
-        <v>45472</v>
+        <v>45482</v>
       </c>
       <c r="G20" s="24">
         <v>11</v>
@@ -11472,7 +11574,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="23">
         <f ca="1">F20+2</f>
-        <v>45474</v>
+        <v>45484</v>
       </c>
       <c r="G21" s="24">
         <v>1</v>
@@ -11714,7 +11816,7 @@
       <c r="E22" s="22"/>
       <c r="F22" s="23">
         <f ca="1">F21+1</f>
-        <v>45475</v>
+        <v>45485</v>
       </c>
       <c r="G22" s="24">
         <v>24</v>
@@ -12195,7 +12297,7 @@
       <c r="E24" s="22"/>
       <c r="F24" s="23">
         <f ca="1">F12+15</f>
-        <v>45474</v>
+        <v>45484</v>
       </c>
       <c r="G24" s="24">
         <v>4</v>
@@ -12439,7 +12541,7 @@
       <c r="E25" s="22"/>
       <c r="F25" s="23">
         <f ca="1">F24+3</f>
-        <v>45477</v>
+        <v>45487</v>
       </c>
       <c r="G25" s="24">
         <v>14</v>
@@ -12683,7 +12785,7 @@
       <c r="E26" s="22"/>
       <c r="F26" s="23">
         <f ca="1">F25+15</f>
-        <v>45492</v>
+        <v>45502</v>
       </c>
       <c r="G26" s="24">
         <v>6</v>
@@ -12927,7 +13029,7 @@
       <c r="E27" s="22"/>
       <c r="F27" s="23">
         <f ca="1">F21+22</f>
-        <v>45496</v>
+        <v>45506</v>
       </c>
       <c r="G27" s="24">
         <v>3</v>
@@ -13171,7 +13273,7 @@
       <c r="E28" s="22"/>
       <c r="F28" s="23">
         <f ca="1">F16</f>
-        <v>45465</v>
+        <v>45475</v>
       </c>
       <c r="G28" s="24">
         <v>19</v>
@@ -13650,7 +13752,7 @@
       <c r="E30" s="22"/>
       <c r="F30" s="23">
         <f ca="1">F27+3</f>
-        <v>45499</v>
+        <v>45509</v>
       </c>
       <c r="G30" s="24">
         <v>15</v>
@@ -13892,7 +13994,7 @@
       <c r="E31" s="22"/>
       <c r="F31" s="23">
         <f ca="1">F30+14</f>
-        <v>45513</v>
+        <v>45523</v>
       </c>
       <c r="G31" s="24">
         <v>5</v>
@@ -14136,7 +14238,7 @@
       <c r="E32" s="22"/>
       <c r="F32" s="23">
         <f ca="1">F31+42</f>
-        <v>45555</v>
+        <v>45565</v>
       </c>
       <c r="G32" s="24">
         <v>1</v>
@@ -15362,7 +15464,7 @@
   </sheetPr>
   <dimension ref="A1:BP38"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRuler="0" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15381,27 +15483,27 @@
     <row r="1" spans="1:68" ht="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:68" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="141"/>
-      <c r="O2" s="142"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="142"/>
-      <c r="S2" s="142"/>
-      <c r="T2" s="142"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="145"/>
       <c r="U2" s="95"/>
       <c r="V2" s="95"/>
       <c r="W2" s="95"/>
@@ -15475,36 +15577,36 @@
         <v>15</v>
       </c>
       <c r="H4" s="73"/>
-      <c r="I4" s="133" t="s">
+      <c r="I4" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
-      <c r="N4" s="134" t="s">
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
+      <c r="N4" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="134"/>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="134"/>
-      <c r="S4" s="135" t="s">
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="S4" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="135"/>
-      <c r="U4" s="135"/>
-      <c r="V4" s="135"/>
-      <c r="X4" s="129" t="s">
+      <c r="T4" s="138"/>
+      <c r="U4" s="138"/>
+      <c r="V4" s="138"/>
+      <c r="X4" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="129"/>
-      <c r="Z4" s="129"/>
-      <c r="AA4" s="129"/>
-      <c r="AC4" s="130" t="s">
+      <c r="Y4" s="131"/>
+      <c r="Z4" s="131"/>
+      <c r="AA4" s="131"/>
+      <c r="AC4" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="AD4" s="130"/>
-      <c r="AE4" s="130"/>
-      <c r="AF4" s="130"/>
+      <c r="AD4" s="132"/>
+      <c r="AE4" s="132"/>
+      <c r="AF4" s="132"/>
     </row>
     <row r="5" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
@@ -15525,7 +15627,7 @@
       </c>
       <c r="C6" s="78" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones43524[Start])=0,TODAY(),B11(Milestones43524[Start])),TODAY())</f>
-        <v>45459</v>
+        <v>45469</v>
       </c>
       <c r="D6" s="79"/>
       <c r="E6" s="73"/>
@@ -15534,7 +15636,7 @@
       <c r="H6" s="73"/>
       <c r="I6" s="89" t="str">
         <f ca="1">TEXT(I7,"mmmm")</f>
-        <v>June</v>
+        <v>July</v>
       </c>
       <c r="J6" s="89"/>
       <c r="K6" s="89"/>
@@ -15554,7 +15656,7 @@
       <c r="V6" s="89"/>
       <c r="W6" s="89" t="str">
         <f ca="1">IF(OR(TEXT(W7,"mmmm")=P6,TEXT(W7,"mmmm")=I6),"",TEXT(W7,"mmmm"))</f>
-        <v>July</v>
+        <v/>
       </c>
       <c r="X6" s="89"/>
       <c r="Y6" s="89"/>
@@ -15584,7 +15686,7 @@
       <c r="AQ6" s="89"/>
       <c r="AR6" s="89" t="str">
         <f ca="1">IF(OR(TEXT(AR7,"mmmm")=AK6,TEXT(AR7,"mmmm")=AD6,TEXT(AR7,"mmmm")=W6,TEXT(AR7,"mmmm")=P6),"",TEXT(AR7,"mmmm"))</f>
-        <v/>
+        <v>August</v>
       </c>
       <c r="AS6" s="89"/>
       <c r="AT6" s="89"/>
@@ -15594,7 +15696,7 @@
       <c r="AX6" s="90"/>
       <c r="AY6" s="90" t="str">
         <f ca="1">IF(OR(TEXT(AY7,"mmmm")=AR6,TEXT(AY7,"mmmm")=AK6,TEXT(AY7,"mmmm")=AD6,TEXT(AY7,"mmmm")=W6),"",TEXT(AY7,"mmmm"))</f>
-        <v>August</v>
+        <v/>
       </c>
       <c r="AZ6" s="90"/>
       <c r="BA6" s="90"/>
@@ -15628,227 +15730,227 @@
       <c r="H7" s="81"/>
       <c r="I7" s="96">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>45464</v>
+        <v>45474</v>
       </c>
       <c r="J7" s="97">
         <f ca="1">I7+1</f>
-        <v>45465</v>
+        <v>45475</v>
       </c>
       <c r="K7" s="97">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>45466</v>
+        <v>45476</v>
       </c>
       <c r="L7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45467</v>
+        <v>45477</v>
       </c>
       <c r="M7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45468</v>
+        <v>45478</v>
       </c>
       <c r="N7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45469</v>
+        <v>45479</v>
       </c>
       <c r="O7" s="98">
         <f t="shared" ca="1" si="0"/>
-        <v>45470</v>
+        <v>45480</v>
       </c>
       <c r="P7" s="97">
         <f ca="1">O7+1</f>
-        <v>45471</v>
+        <v>45481</v>
       </c>
       <c r="Q7" s="97">
         <f ca="1">P7+1</f>
-        <v>45472</v>
+        <v>45482</v>
       </c>
       <c r="R7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45473</v>
+        <v>45483</v>
       </c>
       <c r="S7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45474</v>
+        <v>45484</v>
       </c>
       <c r="T7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45475</v>
+        <v>45485</v>
       </c>
       <c r="U7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45476</v>
+        <v>45486</v>
       </c>
       <c r="V7" s="98">
         <f t="shared" ca="1" si="0"/>
-        <v>45477</v>
+        <v>45487</v>
       </c>
       <c r="W7" s="97">
         <f ca="1">V7+1</f>
-        <v>45478</v>
+        <v>45488</v>
       </c>
       <c r="X7" s="97">
         <f ca="1">W7+1</f>
-        <v>45479</v>
+        <v>45489</v>
       </c>
       <c r="Y7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45480</v>
+        <v>45490</v>
       </c>
       <c r="Z7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45491</v>
       </c>
       <c r="AA7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45482</v>
+        <v>45492</v>
       </c>
       <c r="AB7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45483</v>
+        <v>45493</v>
       </c>
       <c r="AC7" s="98">
         <f t="shared" ca="1" si="0"/>
-        <v>45484</v>
+        <v>45494</v>
       </c>
       <c r="AD7" s="97">
         <f ca="1">AC7+1</f>
-        <v>45485</v>
+        <v>45495</v>
       </c>
       <c r="AE7" s="97">
         <f ca="1">AD7+1</f>
-        <v>45486</v>
+        <v>45496</v>
       </c>
       <c r="AF7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45487</v>
+        <v>45497</v>
       </c>
       <c r="AG7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45488</v>
+        <v>45498</v>
       </c>
       <c r="AH7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45489</v>
+        <v>45499</v>
       </c>
       <c r="AI7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45500</v>
       </c>
       <c r="AJ7" s="98">
         <f t="shared" ca="1" si="0"/>
-        <v>45491</v>
+        <v>45501</v>
       </c>
       <c r="AK7" s="97">
         <f ca="1">AJ7+1</f>
-        <v>45492</v>
+        <v>45502</v>
       </c>
       <c r="AL7" s="97">
         <f ca="1">AK7+1</f>
-        <v>45493</v>
+        <v>45503</v>
       </c>
       <c r="AM7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45494</v>
+        <v>45504</v>
       </c>
       <c r="AN7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
+        <v>45505</v>
       </c>
       <c r="AO7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45496</v>
+        <v>45506</v>
       </c>
       <c r="AP7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45497</v>
+        <v>45507</v>
       </c>
       <c r="AQ7" s="98">
         <f t="shared" ca="1" si="0"/>
-        <v>45498</v>
+        <v>45508</v>
       </c>
       <c r="AR7" s="97">
         <f ca="1">AQ7+1</f>
-        <v>45499</v>
+        <v>45509</v>
       </c>
       <c r="AS7" s="97">
         <f ca="1">AR7+1</f>
-        <v>45500</v>
+        <v>45510</v>
       </c>
       <c r="AT7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45501</v>
+        <v>45511</v>
       </c>
       <c r="AU7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45502</v>
+        <v>45512</v>
       </c>
       <c r="AV7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45503</v>
+        <v>45513</v>
       </c>
       <c r="AW7" s="97">
         <f t="shared" ca="1" si="0"/>
-        <v>45504</v>
+        <v>45514</v>
       </c>
       <c r="AX7" s="98">
         <f t="shared" ca="1" si="0"/>
-        <v>45505</v>
+        <v>45515</v>
       </c>
       <c r="AY7" s="97">
         <f ca="1">AX7+1</f>
-        <v>45506</v>
+        <v>45516</v>
       </c>
       <c r="AZ7" s="97">
         <f ca="1">AY7+1</f>
-        <v>45507</v>
+        <v>45517</v>
       </c>
       <c r="BA7" s="97">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>45508</v>
+        <v>45518</v>
       </c>
       <c r="BB7" s="97">
         <f t="shared" ca="1" si="1"/>
-        <v>45509</v>
+        <v>45519</v>
       </c>
       <c r="BC7" s="97">
         <f t="shared" ca="1" si="1"/>
-        <v>45510</v>
+        <v>45520</v>
       </c>
       <c r="BD7" s="97">
         <f t="shared" ca="1" si="1"/>
-        <v>45511</v>
+        <v>45521</v>
       </c>
       <c r="BE7" s="98">
         <f t="shared" ca="1" si="1"/>
-        <v>45512</v>
+        <v>45522</v>
       </c>
       <c r="BF7" s="97">
         <f ca="1">BE7+1</f>
-        <v>45513</v>
+        <v>45523</v>
       </c>
       <c r="BG7" s="97">
         <f ca="1">BF7+1</f>
-        <v>45514</v>
+        <v>45524</v>
       </c>
       <c r="BH7" s="97">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>45515</v>
+        <v>45525</v>
       </c>
       <c r="BI7" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>45516</v>
+        <v>45526</v>
       </c>
       <c r="BJ7" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>45517</v>
+        <v>45527</v>
       </c>
       <c r="BK7" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>45518</v>
+        <v>45528</v>
       </c>
       <c r="BL7" s="98">
         <f t="shared" ca="1" si="2"/>
-        <v>45519</v>
+        <v>45529</v>
       </c>
     </row>
     <row r="8" spans="1:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -15940,227 +16042,227 @@
       <c r="H9" s="86"/>
       <c r="I9" s="104" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="3">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="J9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="K9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="L9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="M9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="N9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="O9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="P9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="Q9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="R9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="S9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="T9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="U9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="V9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="W9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="X9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="Y9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="Z9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AA9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AB9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="AC9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AD9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AE9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AF9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="AG9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AH9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AI9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="AJ9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AK9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AL9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AM9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="AN9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AO9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AP9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="AQ9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AR9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AS9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AT9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="AU9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AV9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AW9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="AX9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AY9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="AZ9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BA9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="BB9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BC9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BD9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="BE9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="BF9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>M</v>
       </c>
       <c r="BG9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BH9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>W</v>
       </c>
       <c r="BI9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BJ9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BK9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>S</v>
       </c>
       <c r="BL9" s="104" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
     </row>
     <row r="10" spans="1:68" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16480,7 +16582,7 @@
       </c>
       <c r="F12" s="59">
         <f ca="1">TODAY()</f>
-        <v>45459</v>
+        <v>45469</v>
       </c>
       <c r="G12" s="60">
         <v>3</v>
@@ -16723,7 +16825,7 @@
       <c r="E13" s="58"/>
       <c r="F13" s="59">
         <f ca="1">TODAY()+5</f>
-        <v>45464</v>
+        <v>45474</v>
       </c>
       <c r="G13" s="60">
         <v>1</v>
@@ -16968,7 +17070,7 @@
       </c>
       <c r="F14" s="59">
         <f ca="1">F12-3</f>
-        <v>45456</v>
+        <v>45466</v>
       </c>
       <c r="G14" s="60">
         <v>10</v>
@@ -17211,7 +17313,7 @@
       <c r="E15" s="58"/>
       <c r="F15" s="59">
         <f ca="1">F12+20</f>
-        <v>45479</v>
+        <v>45489</v>
       </c>
       <c r="G15" s="60">
         <v>1</v>
@@ -17456,7 +17558,7 @@
       </c>
       <c r="F16" s="59">
         <f ca="1">F12+6</f>
-        <v>45465</v>
+        <v>45475</v>
       </c>
       <c r="G16" s="60">
         <v>6</v>
@@ -17937,7 +18039,7 @@
       </c>
       <c r="F18" s="59">
         <f ca="1">F12+6</f>
-        <v>45465</v>
+        <v>45475</v>
       </c>
       <c r="G18" s="60">
         <v>13</v>
@@ -18182,7 +18284,7 @@
       </c>
       <c r="F19" s="59">
         <f ca="1">F18+2</f>
-        <v>45467</v>
+        <v>45477</v>
       </c>
       <c r="G19" s="60">
         <v>9</v>
@@ -18427,7 +18529,7 @@
       </c>
       <c r="F20" s="59">
         <f ca="1">F19+5</f>
-        <v>45472</v>
+        <v>45482</v>
       </c>
       <c r="G20" s="60">
         <v>11</v>
@@ -18670,7 +18772,7 @@
       <c r="E21" s="58"/>
       <c r="F21" s="59">
         <f ca="1">F20+2</f>
-        <v>45474</v>
+        <v>45484</v>
       </c>
       <c r="G21" s="60">
         <v>1</v>
@@ -18911,7 +19013,7 @@
       <c r="E22" s="58"/>
       <c r="F22" s="59">
         <f ca="1">F21+1</f>
-        <v>45475</v>
+        <v>45485</v>
       </c>
       <c r="G22" s="60">
         <v>24</v>
@@ -19390,7 +19492,7 @@
       <c r="E24" s="58"/>
       <c r="F24" s="59">
         <f ca="1">F12+15</f>
-        <v>45474</v>
+        <v>45484</v>
       </c>
       <c r="G24" s="60">
         <v>4</v>
@@ -19633,7 +19735,7 @@
       <c r="E25" s="58"/>
       <c r="F25" s="59">
         <f ca="1">F24+3</f>
-        <v>45477</v>
+        <v>45487</v>
       </c>
       <c r="G25" s="60">
         <v>14</v>
@@ -19876,7 +19978,7 @@
       <c r="E26" s="58"/>
       <c r="F26" s="59">
         <f ca="1">F25+15</f>
-        <v>45492</v>
+        <v>45502</v>
       </c>
       <c r="G26" s="60">
         <v>6</v>
@@ -20119,7 +20221,7 @@
       <c r="E27" s="58"/>
       <c r="F27" s="59">
         <f ca="1">F21+22</f>
-        <v>45496</v>
+        <v>45506</v>
       </c>
       <c r="G27" s="60">
         <v>3</v>
@@ -20362,7 +20464,7 @@
       <c r="E28" s="58"/>
       <c r="F28" s="59">
         <f ca="1">F16</f>
-        <v>45465</v>
+        <v>45475</v>
       </c>
       <c r="G28" s="60">
         <v>19</v>
@@ -20839,7 +20941,7 @@
       <c r="E30" s="58"/>
       <c r="F30" s="59">
         <f ca="1">F27+3</f>
-        <v>45499</v>
+        <v>45509</v>
       </c>
       <c r="G30" s="60">
         <v>15</v>
@@ -21080,7 +21182,7 @@
       <c r="E31" s="58"/>
       <c r="F31" s="59">
         <f ca="1">F30+14</f>
-        <v>45513</v>
+        <v>45523</v>
       </c>
       <c r="G31" s="60">
         <v>5</v>
@@ -21323,7 +21425,7 @@
       <c r="E32" s="58"/>
       <c r="F32" s="59">
         <f ca="1">F31+42</f>
-        <v>45555</v>
+        <v>45565</v>
       </c>
       <c r="G32" s="60">
         <v>1</v>
@@ -22539,35 +22641,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -22867,27 +22940,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D0FD509-FAA6-490F-8E99-57602ADB216E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16A2ABA2-2AE7-458F-84A6-54746C92ACFB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78CDF409-87B8-4BD3-A7A0-FA31B09DB512}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22908,6 +22990,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16A2ABA2-2AE7-458F-84A6-54746C92ACFB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D0FD509-FAA6-490F-8E99-57602ADB216E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>